--- a/Code/Results/Cases/Case_5_64/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_64/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.010348040835036</v>
+        <v>1.036566368707438</v>
       </c>
       <c r="D2">
-        <v>1.028991937429362</v>
+        <v>1.044708188474221</v>
       </c>
       <c r="E2">
-        <v>1.015348831115732</v>
+        <v>1.035470784259076</v>
       </c>
       <c r="F2">
-        <v>1.029601211848311</v>
+        <v>1.051816545235598</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.046503232758758</v>
+        <v>1.039149228070396</v>
       </c>
       <c r="J2">
-        <v>1.032223588369893</v>
+        <v>1.041673986803223</v>
       </c>
       <c r="K2">
-        <v>1.040061620563018</v>
+        <v>1.047478479059697</v>
       </c>
       <c r="L2">
-        <v>1.02659839491495</v>
+        <v>1.038267295479748</v>
       </c>
       <c r="M2">
-        <v>1.040663001043833</v>
+        <v>1.054566998531514</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,37 +456,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.014462394303112</v>
+        <v>1.037442711288285</v>
       </c>
       <c r="D3">
-        <v>1.032183117218363</v>
+        <v>1.045414660823857</v>
       </c>
       <c r="E3">
-        <v>1.018616573526762</v>
+        <v>1.03621411744198</v>
       </c>
       <c r="F3">
-        <v>1.033474769804871</v>
+        <v>1.052700979514288</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.047698272037224</v>
+        <v>1.039357220548455</v>
       </c>
       <c r="J3">
-        <v>1.034566416663177</v>
+        <v>1.042194715197283</v>
       </c>
       <c r="K3">
-        <v>1.042420125378581</v>
+        <v>1.047996517510298</v>
       </c>
       <c r="L3">
-        <v>1.029016666709844</v>
+        <v>1.038820205951724</v>
       </c>
       <c r="M3">
-        <v>1.043696527324171</v>
+        <v>1.055263970268134</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -494,37 +494,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.017074879122801</v>
+        <v>1.038010380233053</v>
       </c>
       <c r="D4">
-        <v>1.034212400264701</v>
+        <v>1.045872337216553</v>
       </c>
       <c r="E4">
-        <v>1.02069722596211</v>
+        <v>1.036696005294813</v>
       </c>
       <c r="F4">
-        <v>1.035939848741714</v>
+        <v>1.053274276883259</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.04844892191437</v>
+        <v>1.039490919280576</v>
       </c>
       <c r="J4">
-        <v>1.036051667977779</v>
+        <v>1.042531628192384</v>
       </c>
       <c r="K4">
-        <v>1.043914728217288</v>
+        <v>1.048331589507334</v>
       </c>
       <c r="L4">
-        <v>1.030552109935416</v>
+        <v>1.039178211139985</v>
       </c>
       <c r="M4">
-        <v>1.045623030476106</v>
+        <v>1.055715327550684</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -532,37 +532,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.018161634111404</v>
+        <v>1.038249174445168</v>
       </c>
       <c r="D5">
-        <v>1.03505722629091</v>
+        <v>1.046064872349071</v>
       </c>
       <c r="E5">
-        <v>1.02156408632418</v>
+        <v>1.036898805099212</v>
       </c>
       <c r="F5">
-        <v>1.036966571733677</v>
+        <v>1.053515530940069</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.048759190832967</v>
+        <v>1.039546913373726</v>
       </c>
       <c r="J5">
-        <v>1.036668912470092</v>
+        <v>1.042673257296445</v>
       </c>
       <c r="K5">
-        <v>1.044535712298682</v>
+        <v>1.048472420551438</v>
       </c>
       <c r="L5">
-        <v>1.031190780632229</v>
+        <v>1.039328771524984</v>
       </c>
       <c r="M5">
-        <v>1.046424467425737</v>
+        <v>1.055905165208877</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -570,37 +570,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.018343439540816</v>
+        <v>1.038289277574571</v>
       </c>
       <c r="D6">
-        <v>1.035198597384842</v>
+        <v>1.046097207301116</v>
       </c>
       <c r="E6">
-        <v>1.021709182831281</v>
+        <v>1.036932868587551</v>
       </c>
       <c r="F6">
-        <v>1.037138409040683</v>
+        <v>1.053556052570748</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.048810978440557</v>
+        <v>1.039556302527078</v>
       </c>
       <c r="J6">
-        <v>1.036772136553994</v>
+        <v>1.042697036876726</v>
       </c>
       <c r="K6">
-        <v>1.044639552970041</v>
+        <v>1.04849606471863</v>
       </c>
       <c r="L6">
-        <v>1.0312976212587</v>
+        <v>1.039354054464098</v>
       </c>
       <c r="M6">
-        <v>1.046558542815151</v>
+        <v>1.055937044848084</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -608,37 +608,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.017089445219838</v>
+        <v>1.038013570440392</v>
       </c>
       <c r="D7">
-        <v>1.03422372110788</v>
+        <v>1.04587490937965</v>
       </c>
       <c r="E7">
-        <v>1.020708839504346</v>
+        <v>1.036698714276379</v>
       </c>
       <c r="F7">
-        <v>1.035953605171356</v>
+        <v>1.053277499591578</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.048453088441024</v>
+        <v>1.039491668313591</v>
       </c>
       <c r="J7">
-        <v>1.03605994348705</v>
+        <v>1.042533520684733</v>
       </c>
       <c r="K7">
-        <v>1.043923054451394</v>
+        <v>1.048333471430759</v>
       </c>
       <c r="L7">
-        <v>1.030560670468199</v>
+        <v>1.039180222720708</v>
       </c>
       <c r="M7">
-        <v>1.045633772257051</v>
+        <v>1.055717863830587</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -646,37 +646,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.011749048669222</v>
+        <v>1.036862404221456</v>
       </c>
       <c r="D8">
-        <v>1.030077937831508</v>
+        <v>1.044946830979083</v>
       </c>
       <c r="E8">
-        <v>1.01646032822166</v>
+        <v>1.035721809495695</v>
       </c>
       <c r="F8">
-        <v>1.030919055142274</v>
+        <v>1.052115233902202</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.046911854099593</v>
+        <v>1.039219703215158</v>
       </c>
       <c r="J8">
-        <v>1.03302184006199</v>
+        <v>1.041849975535468</v>
       </c>
       <c r="K8">
-        <v>1.040865332918524</v>
+        <v>1.047653579469023</v>
       </c>
       <c r="L8">
-        <v>1.027421856126828</v>
+        <v>1.038454104699711</v>
       </c>
       <c r="M8">
-        <v>1.041695882732191</v>
+        <v>1.054802465879298</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,37 +684,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.001939253566378</v>
+        <v>1.03483868964502</v>
       </c>
       <c r="D9">
-        <v>1.022488214669888</v>
+        <v>1.043315659625393</v>
       </c>
       <c r="E9">
-        <v>1.008703547754788</v>
+        <v>1.034007358122027</v>
       </c>
       <c r="F9">
-        <v>1.021716143821563</v>
+        <v>1.050074981385657</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.044017503682333</v>
+        <v>1.038733707565934</v>
       </c>
       <c r="J9">
-        <v>1.027423717154295</v>
+        <v>1.040645281070026</v>
       </c>
       <c r="K9">
-        <v>1.035226676450662</v>
+        <v>1.04645455601858</v>
       </c>
       <c r="L9">
-        <v>1.02165697678595</v>
+        <v>1.037176449884883</v>
       </c>
       <c r="M9">
-        <v>1.034466450090445</v>
+        <v>1.053192318171863</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,37 +722,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9951041623059804</v>
+        <v>1.033492851511073</v>
       </c>
       <c r="D10">
-        <v>1.017220321723734</v>
+        <v>1.042231149721477</v>
       </c>
       <c r="E10">
-        <v>1.003333620426668</v>
+        <v>1.032869183910538</v>
       </c>
       <c r="F10">
-        <v>1.015336667232374</v>
+        <v>1.048720168446303</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.041960162458589</v>
+        <v>1.038405206446973</v>
       </c>
       <c r="J10">
-        <v>1.023513380747039</v>
+        <v>1.039842087741853</v>
       </c>
       <c r="K10">
-        <v>1.031285466289156</v>
+        <v>1.045654631868969</v>
       </c>
       <c r="L10">
-        <v>1.01764294506101</v>
+        <v>1.036326005943199</v>
       </c>
       <c r="M10">
-        <v>1.029434426724057</v>
+        <v>1.052120926600119</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -760,37 +760,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9920680596909571</v>
+        <v>1.032910890642273</v>
       </c>
       <c r="D11">
-        <v>1.014885877334944</v>
+        <v>1.041762262701224</v>
       </c>
       <c r="E11">
-        <v>1.000957198748001</v>
+        <v>1.032377500064988</v>
       </c>
       <c r="F11">
-        <v>1.01251125674875</v>
+        <v>1.048134811959934</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.041037144872605</v>
+        <v>1.03826190193079</v>
       </c>
       <c r="J11">
-        <v>1.021774580542921</v>
+        <v>1.039494296016713</v>
       </c>
       <c r="K11">
-        <v>1.029532423788267</v>
+        <v>1.045308135218164</v>
       </c>
       <c r="L11">
-        <v>1.015861086250636</v>
+        <v>1.03595808498586</v>
       </c>
       <c r="M11">
-        <v>1.027201024109404</v>
+        <v>1.051657505102746</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -798,37 +798,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9909282434492027</v>
+        <v>1.032694845474547</v>
       </c>
       <c r="D12">
-        <v>1.014010369301557</v>
+        <v>1.041588205984267</v>
       </c>
       <c r="E12">
-        <v>1.000066428896975</v>
+        <v>1.032195041750406</v>
       </c>
       <c r="F12">
-        <v>1.011451835947845</v>
+        <v>1.047917579565778</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.040689291380342</v>
+        <v>1.038208513453191</v>
       </c>
       <c r="J12">
-        <v>1.021121561162875</v>
+        <v>1.039365111321367</v>
       </c>
       <c r="K12">
-        <v>1.028873986688753</v>
+        <v>1.045179413532065</v>
       </c>
       <c r="L12">
-        <v>1.015192356344643</v>
+        <v>1.035821473169178</v>
       </c>
       <c r="M12">
-        <v>1.026362877119406</v>
+        <v>1.051485446083825</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -836,37 +836,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.991173294007796</v>
+        <v>1.032741182397373</v>
       </c>
       <c r="D13">
-        <v>1.014198554609655</v>
+        <v>1.041625536790355</v>
       </c>
       <c r="E13">
-        <v>1.000257872976512</v>
+        <v>1.032234171733469</v>
       </c>
       <c r="F13">
-        <v>1.011679542762166</v>
+        <v>1.047964167795712</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.040764136401335</v>
+        <v>1.038219972638293</v>
       </c>
       <c r="J13">
-        <v>1.021261964694212</v>
+        <v>1.039392821829034</v>
       </c>
       <c r="K13">
-        <v>1.029015558043954</v>
+        <v>1.045207025537939</v>
       </c>
       <c r="L13">
-        <v>1.015336116902083</v>
+        <v>1.035850774565655</v>
       </c>
       <c r="M13">
-        <v>1.026543056176825</v>
+        <v>1.051522349847598</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,37 +874,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9919740919128405</v>
+        <v>1.03289302980443</v>
       </c>
       <c r="D14">
-        <v>1.014813680949086</v>
+        <v>1.041747872889449</v>
       </c>
       <c r="E14">
-        <v>1.000883734079391</v>
+        <v>1.032362414424767</v>
       </c>
       <c r="F14">
-        <v>1.012423890200073</v>
+        <v>1.04811685147277</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.041008494285535</v>
+        <v>1.038257492058226</v>
       </c>
       <c r="J14">
-        <v>1.021720749451549</v>
+        <v>1.039483617549591</v>
       </c>
       <c r="K14">
-        <v>1.029478147444195</v>
+        <v>1.045297495391146</v>
       </c>
       <c r="L14">
-        <v>1.015805950701601</v>
+        <v>1.035946791574648</v>
       </c>
       <c r="M14">
-        <v>1.027131919514031</v>
+        <v>1.051643281084061</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -912,37 +912,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9924658720880399</v>
+        <v>1.032986604081536</v>
       </c>
       <c r="D15">
-        <v>1.015191557298971</v>
+        <v>1.041823262665262</v>
       </c>
       <c r="E15">
-        <v>1.001268268232716</v>
+        <v>1.032441452214403</v>
       </c>
       <c r="F15">
-        <v>1.012881176048015</v>
+        <v>1.048210950827427</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.041158382957825</v>
+        <v>1.038280587988381</v>
       </c>
       <c r="J15">
-        <v>1.022002464921545</v>
+        <v>1.039539559909805</v>
       </c>
       <c r="K15">
-        <v>1.029762190305219</v>
+        <v>1.045353234585327</v>
       </c>
       <c r="L15">
-        <v>1.016094511606266</v>
+        <v>1.036005957541313</v>
       </c>
       <c r="M15">
-        <v>1.027493591582489</v>
+        <v>1.051717800973936</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -950,37 +950,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9953039983583523</v>
+        <v>1.03353149122864</v>
       </c>
       <c r="D16">
-        <v>1.017374094954347</v>
+        <v>1.042262283373601</v>
       </c>
       <c r="E16">
-        <v>1.003490225928666</v>
+        <v>1.032901839789164</v>
       </c>
       <c r="F16">
-        <v>1.015522812923768</v>
+        <v>1.048759043885599</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.042020727950141</v>
+        <v>1.038414694790168</v>
       </c>
       <c r="J16">
-        <v>1.02362779321015</v>
+        <v>1.039865169556936</v>
       </c>
       <c r="K16">
-        <v>1.031400805871216</v>
+        <v>1.045677625200952</v>
       </c>
       <c r="L16">
-        <v>1.017760254543378</v>
+        <v>1.036350430643252</v>
       </c>
       <c r="M16">
-        <v>1.029581470619937</v>
+        <v>1.052151692983397</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -988,37 +988,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9970634071386919</v>
+        <v>1.033873498641351</v>
       </c>
       <c r="D17">
-        <v>1.018728590969669</v>
+        <v>1.042537861529027</v>
       </c>
       <c r="E17">
-        <v>1.00487003870277</v>
+        <v>1.033190938681769</v>
       </c>
       <c r="F17">
-        <v>1.017162641157457</v>
+        <v>1.04910319386634</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.042552923364892</v>
+        <v>1.038498532750569</v>
       </c>
       <c r="J17">
-        <v>1.024634903899819</v>
+        <v>1.040069415734831</v>
       </c>
       <c r="K17">
-        <v>1.032416019937394</v>
+        <v>1.045881074496794</v>
       </c>
       <c r="L17">
-        <v>1.018793213940615</v>
+        <v>1.036566597951122</v>
       </c>
       <c r="M17">
-        <v>1.030876293289428</v>
+        <v>1.052423996413138</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1026,37 +1026,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.998082304327937</v>
+        <v>1.034073062477745</v>
       </c>
       <c r="D18">
-        <v>1.019513517994194</v>
+        <v>1.042698670278223</v>
       </c>
       <c r="E18">
-        <v>1.00566994529308</v>
+        <v>1.033359676316823</v>
       </c>
       <c r="F18">
-        <v>1.018113074102865</v>
+        <v>1.049304054731695</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.042860251496946</v>
+        <v>1.038547331563944</v>
       </c>
       <c r="J18">
-        <v>1.025217956173006</v>
+        <v>1.040188548636308</v>
       </c>
       <c r="K18">
-        <v>1.033003714193604</v>
+        <v>1.045999730959444</v>
       </c>
       <c r="L18">
-        <v>1.019391520591524</v>
+        <v>1.036692716136778</v>
       </c>
       <c r="M18">
-        <v>1.031626309033283</v>
+        <v>1.052582874356244</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1064,37 +1064,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9984284947591027</v>
+        <v>1.034141121554722</v>
       </c>
       <c r="D19">
-        <v>1.019780298885942</v>
+        <v>1.042753513502814</v>
       </c>
       <c r="E19">
-        <v>1.005941869935348</v>
+        <v>1.03341723028917</v>
       </c>
       <c r="F19">
-        <v>1.018436134448477</v>
+        <v>1.049372564074823</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.042964522899035</v>
+        <v>1.038563953300857</v>
       </c>
       <c r="J19">
-        <v>1.025416028124538</v>
+        <v>1.040229169766334</v>
       </c>
       <c r="K19">
-        <v>1.033203354486675</v>
+        <v>1.046040187661344</v>
       </c>
       <c r="L19">
-        <v>1.019594823768112</v>
+        <v>1.036735724474254</v>
       </c>
       <c r="M19">
-        <v>1.031881168483947</v>
+        <v>1.05263705571757</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1102,37 +1102,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9968754021540227</v>
+        <v>1.033836796539025</v>
       </c>
       <c r="D20">
-        <v>1.018583799319212</v>
+        <v>1.042508287485564</v>
       </c>
       <c r="E20">
-        <v>1.004722508805628</v>
+        <v>1.033159909598244</v>
       </c>
       <c r="F20">
-        <v>1.016987332270408</v>
+        <v>1.049066256991141</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.042496144893789</v>
+        <v>1.03848954832304</v>
       </c>
       <c r="J20">
-        <v>1.024527305444118</v>
+        <v>1.040047502089641</v>
       </c>
       <c r="K20">
-        <v>1.032307560788483</v>
+        <v>1.045859247552088</v>
       </c>
       <c r="L20">
-        <v>1.018682823782232</v>
+        <v>1.036543401982149</v>
       </c>
       <c r="M20">
-        <v>1.030737914911235</v>
+        <v>1.052394775860515</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1140,37 +1140,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9917386150329711</v>
+        <v>1.032848311175735</v>
       </c>
       <c r="D21">
-        <v>1.014632776275201</v>
+        <v>1.041711844940437</v>
       </c>
       <c r="E21">
-        <v>1.000699659170019</v>
+        <v>1.03232464530506</v>
       </c>
       <c r="F21">
-        <v>1.012204976625225</v>
+        <v>1.048071884536188</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.040936676519963</v>
+        <v>1.038246447902552</v>
       </c>
       <c r="J21">
-        <v>1.021585848702561</v>
+        <v>1.039456880445731</v>
       </c>
       <c r="K21">
-        <v>1.029342129809969</v>
+        <v>1.045270854744543</v>
       </c>
       <c r="L21">
-        <v>1.015667788407025</v>
+        <v>1.03591851555671</v>
       </c>
       <c r="M21">
-        <v>1.026958753397655</v>
+        <v>1.051607667728943</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1178,37 +1178,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9884387480785329</v>
+        <v>1.032227512038296</v>
       </c>
       <c r="D22">
-        <v>1.012099863094483</v>
+        <v>1.041211720218887</v>
       </c>
       <c r="E22">
-        <v>0.99812349709313</v>
+        <v>1.031800494594425</v>
       </c>
       <c r="F22">
-        <v>1.009140373740334</v>
+        <v>1.047447812598148</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.039927135456735</v>
+        <v>1.038092682581326</v>
       </c>
       <c r="J22">
-        <v>1.019694898721455</v>
+        <v>1.039085537453165</v>
       </c>
       <c r="K22">
-        <v>1.027435370779902</v>
+        <v>1.044900808773725</v>
       </c>
       <c r="L22">
-        <v>1.013732219754676</v>
+        <v>1.035525916950625</v>
       </c>
       <c r="M22">
-        <v>1.02453290699149</v>
+        <v>1.051113224150612</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1216,37 +1216,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9901949258845755</v>
+        <v>1.032556542495643</v>
       </c>
       <c r="D23">
-        <v>1.013447357353339</v>
+        <v>1.041476785485234</v>
       </c>
       <c r="E23">
-        <v>0.9994937374830097</v>
+        <v>1.032078260199647</v>
       </c>
       <c r="F23">
-        <v>1.010770613759996</v>
+        <v>1.047778537278768</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.040465124486738</v>
+        <v>1.038174283324342</v>
       </c>
       <c r="J23">
-        <v>1.020701369880756</v>
+        <v>1.039282392594908</v>
       </c>
       <c r="K23">
-        <v>1.028450290967471</v>
+        <v>1.045096986207888</v>
       </c>
       <c r="L23">
-        <v>1.014762186002378</v>
+        <v>1.035734012760481</v>
       </c>
       <c r="M23">
-        <v>1.025823739231707</v>
+        <v>1.051375295590095</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1254,37 +1254,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9969603761427094</v>
+        <v>1.033853380402412</v>
       </c>
       <c r="D24">
-        <v>1.018649240253132</v>
+        <v>1.042521650510825</v>
       </c>
       <c r="E24">
-        <v>1.004789186377947</v>
+        <v>1.033173929962263</v>
       </c>
       <c r="F24">
-        <v>1.017066565476894</v>
+        <v>1.04908294679218</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.042521810185202</v>
+        <v>1.03849360831574</v>
       </c>
       <c r="J24">
-        <v>1.024575938063509</v>
+        <v>1.040057403924135</v>
       </c>
       <c r="K24">
-        <v>1.032356582579759</v>
+        <v>1.045869110246313</v>
       </c>
       <c r="L24">
-        <v>1.018732717304642</v>
+        <v>1.036553883145044</v>
       </c>
       <c r="M24">
-        <v>1.030800458286848</v>
+        <v>1.052407979222456</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1292,37 +1292,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.004525301085179</v>
+        <v>1.035361292181416</v>
       </c>
       <c r="D25">
-        <v>1.024485717855367</v>
+        <v>1.043736846016449</v>
       </c>
       <c r="E25">
-        <v>1.010742589992287</v>
+        <v>1.034449747398686</v>
       </c>
       <c r="F25">
-        <v>1.024136718304587</v>
+        <v>1.050601499381006</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.044787687165625</v>
+        <v>1.038860145888054</v>
       </c>
       <c r="J25">
-        <v>1.028901324680238</v>
+        <v>1.040956739906127</v>
       </c>
       <c r="K25">
-        <v>1.036715454207095</v>
+        <v>1.046764639191818</v>
       </c>
       <c r="L25">
-        <v>1.023176398961629</v>
+        <v>1.037506526197506</v>
       </c>
       <c r="M25">
-        <v>1.036371550968766</v>
+        <v>1.053608226949513</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_64/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_64/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.036566368707438</v>
+        <v>1.010348040835036</v>
       </c>
       <c r="D2">
-        <v>1.044708188474221</v>
+        <v>1.028991937429362</v>
       </c>
       <c r="E2">
-        <v>1.035470784259076</v>
+        <v>1.015348831115732</v>
       </c>
       <c r="F2">
-        <v>1.051816545235598</v>
+        <v>1.02960121184831</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.039149228070396</v>
+        <v>1.046503232758757</v>
       </c>
       <c r="J2">
-        <v>1.041673986803223</v>
+        <v>1.032223588369892</v>
       </c>
       <c r="K2">
-        <v>1.047478479059697</v>
+        <v>1.040061620563018</v>
       </c>
       <c r="L2">
-        <v>1.038267295479748</v>
+        <v>1.026598394914949</v>
       </c>
       <c r="M2">
-        <v>1.054566998531514</v>
+        <v>1.040663001043833</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,37 +456,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.037442711288285</v>
+        <v>1.014462394303112</v>
       </c>
       <c r="D3">
-        <v>1.045414660823857</v>
+        <v>1.032183117218364</v>
       </c>
       <c r="E3">
-        <v>1.03621411744198</v>
+        <v>1.018616573526763</v>
       </c>
       <c r="F3">
-        <v>1.052700979514288</v>
+        <v>1.033474769804872</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.039357220548455</v>
+        <v>1.047698272037225</v>
       </c>
       <c r="J3">
-        <v>1.042194715197283</v>
+        <v>1.034566416663178</v>
       </c>
       <c r="K3">
-        <v>1.047996517510298</v>
+        <v>1.042420125378582</v>
       </c>
       <c r="L3">
-        <v>1.038820205951724</v>
+        <v>1.029016666709845</v>
       </c>
       <c r="M3">
-        <v>1.055263970268134</v>
+        <v>1.043696527324172</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -494,37 +494,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.038010380233053</v>
+        <v>1.017074879122803</v>
       </c>
       <c r="D4">
-        <v>1.045872337216553</v>
+        <v>1.034212400264702</v>
       </c>
       <c r="E4">
-        <v>1.036696005294813</v>
+        <v>1.020697225962111</v>
       </c>
       <c r="F4">
-        <v>1.053274276883259</v>
+        <v>1.035939848741715</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.039490919280576</v>
+        <v>1.04844892191437</v>
       </c>
       <c r="J4">
-        <v>1.042531628192384</v>
+        <v>1.03605166797778</v>
       </c>
       <c r="K4">
-        <v>1.048331589507334</v>
+        <v>1.043914728217289</v>
       </c>
       <c r="L4">
-        <v>1.039178211139985</v>
+        <v>1.030552109935417</v>
       </c>
       <c r="M4">
-        <v>1.055715327550684</v>
+        <v>1.045623030476107</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -532,37 +532,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.038249174445168</v>
+        <v>1.018161634111404</v>
       </c>
       <c r="D5">
-        <v>1.046064872349071</v>
+        <v>1.035057226290909</v>
       </c>
       <c r="E5">
-        <v>1.036898805099212</v>
+        <v>1.021564086324179</v>
       </c>
       <c r="F5">
-        <v>1.053515530940069</v>
+        <v>1.036966571733677</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.039546913373726</v>
+        <v>1.048759190832967</v>
       </c>
       <c r="J5">
-        <v>1.042673257296445</v>
+        <v>1.036668912470091</v>
       </c>
       <c r="K5">
-        <v>1.048472420551438</v>
+        <v>1.044535712298682</v>
       </c>
       <c r="L5">
-        <v>1.039328771524984</v>
+        <v>1.031190780632228</v>
       </c>
       <c r="M5">
-        <v>1.055905165208877</v>
+        <v>1.046424467425736</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -570,37 +570,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.038289277574571</v>
+        <v>1.018343439540816</v>
       </c>
       <c r="D6">
-        <v>1.046097207301116</v>
+        <v>1.035198597384843</v>
       </c>
       <c r="E6">
-        <v>1.036932868587551</v>
+        <v>1.021709182831281</v>
       </c>
       <c r="F6">
-        <v>1.053556052570748</v>
+        <v>1.037138409040684</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.039556302527078</v>
+        <v>1.048810978440557</v>
       </c>
       <c r="J6">
-        <v>1.042697036876726</v>
+        <v>1.036772136553995</v>
       </c>
       <c r="K6">
-        <v>1.04849606471863</v>
+        <v>1.044639552970042</v>
       </c>
       <c r="L6">
-        <v>1.039354054464098</v>
+        <v>1.031297621258701</v>
       </c>
       <c r="M6">
-        <v>1.055937044848084</v>
+        <v>1.046558542815152</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -608,37 +608,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.038013570440392</v>
+        <v>1.017089445219837</v>
       </c>
       <c r="D7">
-        <v>1.04587490937965</v>
+        <v>1.03422372110788</v>
       </c>
       <c r="E7">
-        <v>1.036698714276379</v>
+        <v>1.020708839504346</v>
       </c>
       <c r="F7">
-        <v>1.053277499591578</v>
+        <v>1.035953605171356</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.039491668313591</v>
+        <v>1.048453088441024</v>
       </c>
       <c r="J7">
-        <v>1.042533520684733</v>
+        <v>1.03605994348705</v>
       </c>
       <c r="K7">
-        <v>1.048333471430759</v>
+        <v>1.043923054451394</v>
       </c>
       <c r="L7">
-        <v>1.039180222720708</v>
+        <v>1.030560670468199</v>
       </c>
       <c r="M7">
-        <v>1.055717863830587</v>
+        <v>1.045633772257051</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -646,37 +646,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.036862404221456</v>
+        <v>1.011749048669222</v>
       </c>
       <c r="D8">
-        <v>1.044946830979083</v>
+        <v>1.030077937831508</v>
       </c>
       <c r="E8">
-        <v>1.035721809495695</v>
+        <v>1.01646032822166</v>
       </c>
       <c r="F8">
-        <v>1.052115233902202</v>
+        <v>1.030919055142274</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.039219703215158</v>
+        <v>1.046911854099593</v>
       </c>
       <c r="J8">
-        <v>1.041849975535468</v>
+        <v>1.033021840061989</v>
       </c>
       <c r="K8">
-        <v>1.047653579469023</v>
+        <v>1.040865332918524</v>
       </c>
       <c r="L8">
-        <v>1.038454104699711</v>
+        <v>1.027421856126828</v>
       </c>
       <c r="M8">
-        <v>1.054802465879298</v>
+        <v>1.041695882732191</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,37 +684,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.03483868964502</v>
+        <v>1.001939253566378</v>
       </c>
       <c r="D9">
-        <v>1.043315659625393</v>
+        <v>1.022488214669888</v>
       </c>
       <c r="E9">
-        <v>1.034007358122027</v>
+        <v>1.008703547754788</v>
       </c>
       <c r="F9">
-        <v>1.050074981385657</v>
+        <v>1.021716143821563</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.038733707565934</v>
+        <v>1.044017503682333</v>
       </c>
       <c r="J9">
-        <v>1.040645281070026</v>
+        <v>1.027423717154295</v>
       </c>
       <c r="K9">
-        <v>1.04645455601858</v>
+        <v>1.035226676450662</v>
       </c>
       <c r="L9">
-        <v>1.037176449884883</v>
+        <v>1.02165697678595</v>
       </c>
       <c r="M9">
-        <v>1.053192318171863</v>
+        <v>1.034466450090446</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,37 +722,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.033492851511073</v>
+        <v>0.9951041623059798</v>
       </c>
       <c r="D10">
-        <v>1.042231149721477</v>
+        <v>1.017220321723733</v>
       </c>
       <c r="E10">
-        <v>1.032869183910538</v>
+        <v>1.003333620426667</v>
       </c>
       <c r="F10">
-        <v>1.048720168446303</v>
+        <v>1.015336667232372</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.038405206446973</v>
+        <v>1.041960162458588</v>
       </c>
       <c r="J10">
-        <v>1.039842087741853</v>
+        <v>1.023513380747038</v>
       </c>
       <c r="K10">
-        <v>1.045654631868969</v>
+        <v>1.031285466289155</v>
       </c>
       <c r="L10">
-        <v>1.036326005943199</v>
+        <v>1.017642945061009</v>
       </c>
       <c r="M10">
-        <v>1.052120926600119</v>
+        <v>1.029434426724056</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -760,37 +760,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.032910890642273</v>
+        <v>0.9920680596909566</v>
       </c>
       <c r="D11">
-        <v>1.041762262701224</v>
+        <v>1.014885877334943</v>
       </c>
       <c r="E11">
-        <v>1.032377500064988</v>
+        <v>1.000957198748001</v>
       </c>
       <c r="F11">
-        <v>1.048134811959934</v>
+        <v>1.012511256748749</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.03826190193079</v>
+        <v>1.041037144872605</v>
       </c>
       <c r="J11">
-        <v>1.039494296016713</v>
+        <v>1.021774580542921</v>
       </c>
       <c r="K11">
-        <v>1.045308135218164</v>
+        <v>1.029532423788266</v>
       </c>
       <c r="L11">
-        <v>1.03595808498586</v>
+        <v>1.015861086250636</v>
       </c>
       <c r="M11">
-        <v>1.051657505102746</v>
+        <v>1.027201024109403</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -798,37 +798,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.032694845474547</v>
+        <v>0.9909282434492036</v>
       </c>
       <c r="D12">
-        <v>1.041588205984267</v>
+        <v>1.014010369301558</v>
       </c>
       <c r="E12">
-        <v>1.032195041750406</v>
+        <v>1.000066428896976</v>
       </c>
       <c r="F12">
-        <v>1.047917579565778</v>
+        <v>1.011451835947845</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.038208513453191</v>
+        <v>1.040689291380343</v>
       </c>
       <c r="J12">
-        <v>1.039365111321367</v>
+        <v>1.021121561162876</v>
       </c>
       <c r="K12">
-        <v>1.045179413532065</v>
+        <v>1.028873986688754</v>
       </c>
       <c r="L12">
-        <v>1.035821473169178</v>
+        <v>1.015192356344644</v>
       </c>
       <c r="M12">
-        <v>1.051485446083825</v>
+        <v>1.026362877119407</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -836,37 +836,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.032741182397373</v>
+        <v>0.9911732940077967</v>
       </c>
       <c r="D13">
-        <v>1.041625536790355</v>
+        <v>1.014198554609656</v>
       </c>
       <c r="E13">
-        <v>1.032234171733469</v>
+        <v>1.000257872976513</v>
       </c>
       <c r="F13">
-        <v>1.047964167795712</v>
+        <v>1.011679542762167</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.038219972638293</v>
+        <v>1.040764136401336</v>
       </c>
       <c r="J13">
-        <v>1.039392821829034</v>
+        <v>1.021261964694213</v>
       </c>
       <c r="K13">
-        <v>1.045207025537939</v>
+        <v>1.029015558043955</v>
       </c>
       <c r="L13">
-        <v>1.035850774565655</v>
+        <v>1.015336116902084</v>
       </c>
       <c r="M13">
-        <v>1.051522349847598</v>
+        <v>1.026543056176826</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,37 +874,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.03289302980443</v>
+        <v>0.9919740919128414</v>
       </c>
       <c r="D14">
-        <v>1.041747872889449</v>
+        <v>1.014813680949086</v>
       </c>
       <c r="E14">
-        <v>1.032362414424767</v>
+        <v>1.000883734079392</v>
       </c>
       <c r="F14">
-        <v>1.04811685147277</v>
+        <v>1.012423890200074</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.038257492058226</v>
+        <v>1.041008494285535</v>
       </c>
       <c r="J14">
-        <v>1.039483617549591</v>
+        <v>1.021720749451549</v>
       </c>
       <c r="K14">
-        <v>1.045297495391146</v>
+        <v>1.029478147444195</v>
       </c>
       <c r="L14">
-        <v>1.035946791574648</v>
+        <v>1.015805950701602</v>
       </c>
       <c r="M14">
-        <v>1.051643281084061</v>
+        <v>1.027131919514032</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -912,37 +912,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.032986604081536</v>
+        <v>0.9924658720880406</v>
       </c>
       <c r="D15">
-        <v>1.041823262665262</v>
+        <v>1.015191557298972</v>
       </c>
       <c r="E15">
-        <v>1.032441452214403</v>
+        <v>1.001268268232717</v>
       </c>
       <c r="F15">
-        <v>1.048210950827427</v>
+        <v>1.012881176048016</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.038280587988381</v>
+        <v>1.041158382957825</v>
       </c>
       <c r="J15">
-        <v>1.039539559909805</v>
+        <v>1.022002464921545</v>
       </c>
       <c r="K15">
-        <v>1.045353234585327</v>
+        <v>1.029762190305219</v>
       </c>
       <c r="L15">
-        <v>1.036005957541313</v>
+        <v>1.016094511606267</v>
       </c>
       <c r="M15">
-        <v>1.051717800973936</v>
+        <v>1.02749359158249</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -950,37 +950,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.03353149122864</v>
+        <v>0.9953039983583515</v>
       </c>
       <c r="D16">
-        <v>1.042262283373601</v>
+        <v>1.017374094954346</v>
       </c>
       <c r="E16">
-        <v>1.032901839789164</v>
+        <v>1.003490225928665</v>
       </c>
       <c r="F16">
-        <v>1.048759043885599</v>
+        <v>1.015522812923767</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.038414694790168</v>
+        <v>1.04202072795014</v>
       </c>
       <c r="J16">
-        <v>1.039865169556936</v>
+        <v>1.023627793210149</v>
       </c>
       <c r="K16">
-        <v>1.045677625200952</v>
+        <v>1.031400805871215</v>
       </c>
       <c r="L16">
-        <v>1.036350430643252</v>
+        <v>1.017760254543377</v>
       </c>
       <c r="M16">
-        <v>1.052151692983397</v>
+        <v>1.029581470619936</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -988,37 +988,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.033873498641351</v>
+        <v>0.9970634071386908</v>
       </c>
       <c r="D17">
-        <v>1.042537861529027</v>
+        <v>1.018728590969668</v>
       </c>
       <c r="E17">
-        <v>1.033190938681769</v>
+        <v>1.004870038702769</v>
       </c>
       <c r="F17">
-        <v>1.04910319386634</v>
+        <v>1.017162641157455</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.038498532750569</v>
+        <v>1.042552923364892</v>
       </c>
       <c r="J17">
-        <v>1.040069415734831</v>
+        <v>1.024634903899818</v>
       </c>
       <c r="K17">
-        <v>1.045881074496794</v>
+        <v>1.032416019937392</v>
       </c>
       <c r="L17">
-        <v>1.036566597951122</v>
+        <v>1.018793213940614</v>
       </c>
       <c r="M17">
-        <v>1.052423996413138</v>
+        <v>1.030876293289427</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1026,37 +1026,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.034073062477745</v>
+        <v>0.9980823043279362</v>
       </c>
       <c r="D18">
-        <v>1.042698670278223</v>
+        <v>1.019513517994193</v>
       </c>
       <c r="E18">
-        <v>1.033359676316823</v>
+        <v>1.00566994529308</v>
       </c>
       <c r="F18">
-        <v>1.049304054731695</v>
+        <v>1.018113074102865</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.038547331563944</v>
+        <v>1.042860251496946</v>
       </c>
       <c r="J18">
-        <v>1.040188548636308</v>
+        <v>1.025217956173005</v>
       </c>
       <c r="K18">
-        <v>1.045999730959444</v>
+        <v>1.033003714193603</v>
       </c>
       <c r="L18">
-        <v>1.036692716136778</v>
+        <v>1.019391520591523</v>
       </c>
       <c r="M18">
-        <v>1.052582874356244</v>
+        <v>1.031626309033282</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1064,37 +1064,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.034141121554722</v>
+        <v>0.9984284947591022</v>
       </c>
       <c r="D19">
-        <v>1.042753513502814</v>
+        <v>1.019780298885942</v>
       </c>
       <c r="E19">
-        <v>1.03341723028917</v>
+        <v>1.005941869935347</v>
       </c>
       <c r="F19">
-        <v>1.049372564074823</v>
+        <v>1.018436134448476</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.038563953300857</v>
+        <v>1.042964522899035</v>
       </c>
       <c r="J19">
-        <v>1.040229169766334</v>
+        <v>1.025416028124537</v>
       </c>
       <c r="K19">
-        <v>1.046040187661344</v>
+        <v>1.033203354486675</v>
       </c>
       <c r="L19">
-        <v>1.036735724474254</v>
+        <v>1.019594823768111</v>
       </c>
       <c r="M19">
-        <v>1.05263705571757</v>
+        <v>1.031881168483946</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1102,37 +1102,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.033836796539025</v>
+        <v>0.9968754021540214</v>
       </c>
       <c r="D20">
-        <v>1.042508287485564</v>
+        <v>1.018583799319211</v>
       </c>
       <c r="E20">
-        <v>1.033159909598244</v>
+        <v>1.004722508805627</v>
       </c>
       <c r="F20">
-        <v>1.049066256991141</v>
+        <v>1.016987332270407</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.03848954832304</v>
+        <v>1.042496144893788</v>
       </c>
       <c r="J20">
-        <v>1.040047502089641</v>
+        <v>1.024527305444117</v>
       </c>
       <c r="K20">
-        <v>1.045859247552088</v>
+        <v>1.032307560788482</v>
       </c>
       <c r="L20">
-        <v>1.036543401982149</v>
+        <v>1.01868282378223</v>
       </c>
       <c r="M20">
-        <v>1.052394775860515</v>
+        <v>1.030737914911233</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1140,37 +1140,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.032848311175735</v>
+        <v>0.9917386150329712</v>
       </c>
       <c r="D21">
-        <v>1.041711844940437</v>
+        <v>1.014632776275201</v>
       </c>
       <c r="E21">
-        <v>1.03232464530506</v>
+        <v>1.000699659170019</v>
       </c>
       <c r="F21">
-        <v>1.048071884536188</v>
+        <v>1.012204976625226</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.038246447902552</v>
+        <v>1.040936676519963</v>
       </c>
       <c r="J21">
-        <v>1.039456880445731</v>
+        <v>1.021585848702561</v>
       </c>
       <c r="K21">
-        <v>1.045270854744543</v>
+        <v>1.029342129809969</v>
       </c>
       <c r="L21">
-        <v>1.03591851555671</v>
+        <v>1.015667788407025</v>
       </c>
       <c r="M21">
-        <v>1.051607667728943</v>
+        <v>1.026958753397655</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1178,37 +1178,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.032227512038296</v>
+        <v>0.9884387480785322</v>
       </c>
       <c r="D22">
-        <v>1.041211720218887</v>
+        <v>1.012099863094482</v>
       </c>
       <c r="E22">
-        <v>1.031800494594425</v>
+        <v>0.9981234970931292</v>
       </c>
       <c r="F22">
-        <v>1.047447812598148</v>
+        <v>1.009140373740333</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.038092682581326</v>
+        <v>1.039927135456735</v>
       </c>
       <c r="J22">
-        <v>1.039085537453165</v>
+        <v>1.019694898721454</v>
       </c>
       <c r="K22">
-        <v>1.044900808773725</v>
+        <v>1.027435370779901</v>
       </c>
       <c r="L22">
-        <v>1.035525916950625</v>
+        <v>1.013732219754676</v>
       </c>
       <c r="M22">
-        <v>1.051113224150612</v>
+        <v>1.024532906991489</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1216,37 +1216,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.032556542495643</v>
+        <v>0.9901949258845762</v>
       </c>
       <c r="D23">
-        <v>1.041476785485234</v>
+        <v>1.01344735735334</v>
       </c>
       <c r="E23">
-        <v>1.032078260199647</v>
+        <v>0.9994937374830106</v>
       </c>
       <c r="F23">
-        <v>1.047778537278768</v>
+        <v>1.010770613759997</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.038174283324342</v>
+        <v>1.040465124486739</v>
       </c>
       <c r="J23">
-        <v>1.039282392594908</v>
+        <v>1.020701369880757</v>
       </c>
       <c r="K23">
-        <v>1.045096986207888</v>
+        <v>1.028450290967472</v>
       </c>
       <c r="L23">
-        <v>1.035734012760481</v>
+        <v>1.014762186002379</v>
       </c>
       <c r="M23">
-        <v>1.051375295590095</v>
+        <v>1.025823739231708</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1254,37 +1254,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.033853380402412</v>
+        <v>0.9969603761427092</v>
       </c>
       <c r="D24">
-        <v>1.042521650510825</v>
+        <v>1.018649240253132</v>
       </c>
       <c r="E24">
-        <v>1.033173929962263</v>
+        <v>1.004789186377947</v>
       </c>
       <c r="F24">
-        <v>1.04908294679218</v>
+        <v>1.017066565476894</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.03849360831574</v>
+        <v>1.042521810185202</v>
       </c>
       <c r="J24">
-        <v>1.040057403924135</v>
+        <v>1.024575938063509</v>
       </c>
       <c r="K24">
-        <v>1.045869110246313</v>
+        <v>1.032356582579759</v>
       </c>
       <c r="L24">
-        <v>1.036553883145044</v>
+        <v>1.018732717304642</v>
       </c>
       <c r="M24">
-        <v>1.052407979222456</v>
+        <v>1.030800458286848</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1292,37 +1292,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.035361292181416</v>
+        <v>1.004525301085178</v>
       </c>
       <c r="D25">
-        <v>1.043736846016449</v>
+        <v>1.024485717855367</v>
       </c>
       <c r="E25">
-        <v>1.034449747398686</v>
+        <v>1.010742589992287</v>
       </c>
       <c r="F25">
-        <v>1.050601499381006</v>
+        <v>1.024136718304586</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.038860145888054</v>
+        <v>1.044787687165625</v>
       </c>
       <c r="J25">
-        <v>1.040956739906127</v>
+        <v>1.028901324680237</v>
       </c>
       <c r="K25">
-        <v>1.046764639191818</v>
+        <v>1.036715454207094</v>
       </c>
       <c r="L25">
-        <v>1.037506526197506</v>
+        <v>1.023176398961629</v>
       </c>
       <c r="M25">
-        <v>1.053608226949513</v>
+        <v>1.036371550968766</v>
       </c>
     </row>
   </sheetData>
